--- a/Test/Lawnmower/T2/Sensors_data_1000008.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000008.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9505645250226251</v>
+        <v>0.976486124919682</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002896293020633467</v>
+        <v>0.0006572208410135176</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04854129955184122</v>
+        <v>0.4205449485339572</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6777648882294127</v>
+        <v>0.9873585191857802</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02015473869559617</v>
+        <v>0.0006644856433077981</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1750828126529547</v>
+        <v>0.07216281873530178</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -525,68 +525,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.990856873139631</v>
+        <v>0.9139954682053359</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0005865430558901205</v>
+        <v>0.002691982593676947</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003704250788216845</v>
+        <v>0.06581603334232494</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9826110347712941</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0006414267261178042</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3957371915439102</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9892415235480682</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.000441990047800455</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.005102155038954059</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
